--- a/app/postgres_data/daily/real_consumption/archiv/13_12_2022_real_con.xlsx
+++ b/app/postgres_data/daily/real_consumption/archiv/13_12_2022_real_con.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5919" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="129">
   <si>
     <t>Datenkategorie: Realisierter Stromverbrauch</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Zeitraum: 28.11.2022, 00:00 - 15.12.2022, 23:59</t>
   </si>
   <si>
-    <t>Stand: 13.12.2022, 13:18</t>
+    <t>Stand: 13.12.2022, 16:13</t>
   </si>
   <si>
     <t>(c) Bundesnetzagentur | SMARD.de</t>
@@ -22345,7 +22345,7 @@
         <v>17255.0</v>
       </c>
       <c r="E1102" t="n" s="1">
-        <v>15693.0</v>
+        <v>15692.75</v>
       </c>
       <c r="F1102" t="n" s="1">
         <v>2.75</v>
@@ -22385,7 +22385,7 @@
         <v>17253.0</v>
       </c>
       <c r="E1104" t="n" s="1">
-        <v>15598.5</v>
+        <v>15598.25</v>
       </c>
       <c r="F1104" t="n" s="1">
         <v>2.25</v>
@@ -22425,7 +22425,7 @@
         <v>17400.75</v>
       </c>
       <c r="E1106" t="n" s="1">
-        <v>15572.25</v>
+        <v>15572.0</v>
       </c>
       <c r="F1106" t="n" s="1">
         <v>1.75</v>
@@ -22445,7 +22445,7 @@
         <v>17342.5</v>
       </c>
       <c r="E1107" t="n" s="1">
-        <v>15443.0</v>
+        <v>15442.75</v>
       </c>
       <c r="F1107" t="n" s="1">
         <v>1.25</v>
@@ -22465,7 +22465,7 @@
         <v>17415.25</v>
       </c>
       <c r="E1108" t="n" s="1">
-        <v>15490.5</v>
+        <v>15490.25</v>
       </c>
       <c r="F1108" t="n" s="1">
         <v>1.5</v>
@@ -22485,7 +22485,7 @@
         <v>17393.5</v>
       </c>
       <c r="E1109" t="n" s="1">
-        <v>15459.75</v>
+        <v>15459.5</v>
       </c>
       <c r="F1109" t="n" s="1">
         <v>2.0</v>
@@ -22505,7 +22505,7 @@
         <v>17395.5</v>
       </c>
       <c r="E1110" t="n" s="1">
-        <v>15440.25</v>
+        <v>15439.75</v>
       </c>
       <c r="F1110" t="n" s="1">
         <v>1.75</v>
@@ -22525,7 +22525,7 @@
         <v>17461.5</v>
       </c>
       <c r="E1111" t="n" s="1">
-        <v>15471.25</v>
+        <v>15470.75</v>
       </c>
       <c r="F1111" t="n" s="1">
         <v>2.25</v>
@@ -22545,7 +22545,7 @@
         <v>17397.0</v>
       </c>
       <c r="E1112" t="n" s="1">
-        <v>15440.0</v>
+        <v>15439.75</v>
       </c>
       <c r="F1112" t="n" s="1">
         <v>16.25</v>
@@ -22565,7 +22565,7 @@
         <v>17214.5</v>
       </c>
       <c r="E1113" t="n" s="1">
-        <v>15270.75</v>
+        <v>15270.0</v>
       </c>
       <c r="F1113" t="n" s="1">
         <v>79.75</v>
@@ -22585,7 +22585,7 @@
         <v>17160.25</v>
       </c>
       <c r="E1114" t="n" s="1">
-        <v>15211.0</v>
+        <v>15210.5</v>
       </c>
       <c r="F1114" t="n" s="1">
         <v>79.25</v>
@@ -22605,7 +22605,7 @@
         <v>17111.75</v>
       </c>
       <c r="E1115" t="n" s="1">
-        <v>15160.75</v>
+        <v>15160.25</v>
       </c>
       <c r="F1115" t="n" s="1">
         <v>79.5</v>
@@ -22625,7 +22625,7 @@
         <v>17089.0</v>
       </c>
       <c r="E1116" t="n" s="1">
-        <v>15126.0</v>
+        <v>15125.5</v>
       </c>
       <c r="F1116" t="n" s="1">
         <v>79.5</v>
@@ -22645,7 +22645,7 @@
         <v>17009.5</v>
       </c>
       <c r="E1117" t="n" s="1">
-        <v>14976.25</v>
+        <v>14975.75</v>
       </c>
       <c r="F1117" t="n" s="1">
         <v>79.25</v>
@@ -22665,7 +22665,7 @@
         <v>16958.75</v>
       </c>
       <c r="E1118" t="n" s="1">
-        <v>14833.5</v>
+        <v>14832.75</v>
       </c>
       <c r="F1118" t="n" s="1">
         <v>152.25</v>
@@ -22685,7 +22685,7 @@
         <v>17070.5</v>
       </c>
       <c r="E1119" t="n" s="1">
-        <v>14990.5</v>
+        <v>14989.75</v>
       </c>
       <c r="F1119" t="n" s="1">
         <v>247.0</v>
@@ -22705,7 +22705,7 @@
         <v>17022.5</v>
       </c>
       <c r="E1120" t="n" s="1">
-        <v>15044.0</v>
+        <v>15043.5</v>
       </c>
       <c r="F1120" t="n" s="1">
         <v>171.25</v>
@@ -22725,7 +22725,7 @@
         <v>17065.5</v>
       </c>
       <c r="E1121" t="n" s="1">
-        <v>15141.5</v>
+        <v>15141.0</v>
       </c>
       <c r="F1121" t="n" s="1">
         <v>200.5</v>
@@ -22745,7 +22745,7 @@
         <v>16978.5</v>
       </c>
       <c r="E1122" t="n" s="1">
-        <v>15191.75</v>
+        <v>15191.25</v>
       </c>
       <c r="F1122" t="n" s="1">
         <v>223.5</v>
@@ -22765,7 +22765,7 @@
         <v>16796.25</v>
       </c>
       <c r="E1123" t="n" s="1">
-        <v>15136.5</v>
+        <v>15135.75</v>
       </c>
       <c r="F1123" t="n" s="1">
         <v>105.5</v>
@@ -22785,7 +22785,7 @@
         <v>16717.0</v>
       </c>
       <c r="E1124" t="n" s="1">
-        <v>15174.75</v>
+        <v>15174.25</v>
       </c>
       <c r="F1124" t="n" s="1">
         <v>74.25</v>
@@ -22805,7 +22805,7 @@
         <v>16611.5</v>
       </c>
       <c r="E1125" t="n" s="1">
-        <v>15164.25</v>
+        <v>15164.0</v>
       </c>
       <c r="F1125" t="n" s="1">
         <v>24.25</v>
@@ -22825,7 +22825,7 @@
         <v>16480.25</v>
       </c>
       <c r="E1126" t="n" s="1">
-        <v>15116.5</v>
+        <v>15116.25</v>
       </c>
       <c r="F1126" t="n" s="1">
         <v>83.0</v>
@@ -22845,7 +22845,7 @@
         <v>16465.5</v>
       </c>
       <c r="E1127" t="n" s="1">
-        <v>15161.0</v>
+        <v>15160.75</v>
       </c>
       <c r="F1127" t="n" s="1">
         <v>40.5</v>
@@ -22865,7 +22865,7 @@
         <v>16564.0</v>
       </c>
       <c r="E1128" t="n" s="1">
-        <v>15352.0</v>
+        <v>15351.75</v>
       </c>
       <c r="F1128" t="n" s="1">
         <v>31.0</v>
@@ -22885,7 +22885,7 @@
         <v>16552.25</v>
       </c>
       <c r="E1129" t="n" s="1">
-        <v>15403.25</v>
+        <v>15403.0</v>
       </c>
       <c r="F1129" t="n" s="1">
         <v>32.75</v>
@@ -22925,7 +22925,7 @@
         <v>16443.0</v>
       </c>
       <c r="E1131" t="n" s="1">
-        <v>15290.0</v>
+        <v>15289.75</v>
       </c>
       <c r="F1131" t="n" s="1">
         <v>23.0</v>
@@ -23165,7 +23165,7 @@
         <v>16397.5</v>
       </c>
       <c r="E1143" t="n" s="1">
-        <v>15090.0</v>
+        <v>15089.75</v>
       </c>
       <c r="F1143" t="n" s="1">
         <v>39.0</v>
@@ -23185,7 +23185,7 @@
         <v>16236.0</v>
       </c>
       <c r="E1144" t="n" s="1">
-        <v>14944.0</v>
+        <v>14943.75</v>
       </c>
       <c r="F1144" t="n" s="1">
         <v>41.5</v>
@@ -23205,7 +23205,7 @@
         <v>16111.5</v>
       </c>
       <c r="E1145" t="n" s="1">
-        <v>14838.25</v>
+        <v>14838.0</v>
       </c>
       <c r="F1145" t="n" s="1">
         <v>50.75</v>
@@ -23245,7 +23245,7 @@
         <v>15816.25</v>
       </c>
       <c r="E1147" t="n" s="1">
-        <v>14504.75</v>
+        <v>14504.5</v>
       </c>
       <c r="F1147" t="n" s="1">
         <v>31.5</v>
@@ -23305,7 +23305,7 @@
         <v>15169.5</v>
       </c>
       <c r="E1150" t="n" s="1">
-        <v>13937.75</v>
+        <v>13937.5</v>
       </c>
       <c r="F1150" t="n" s="1">
         <v>61.75</v>
@@ -23325,7 +23325,7 @@
         <v>15062.25</v>
       </c>
       <c r="E1151" t="n" s="1">
-        <v>13889.0</v>
+        <v>13888.75</v>
       </c>
       <c r="F1151" t="n" s="1">
         <v>45.0</v>
@@ -23365,7 +23365,7 @@
         <v>14746.5</v>
       </c>
       <c r="E1153" t="n" s="1">
-        <v>13566.75</v>
+        <v>13566.5</v>
       </c>
       <c r="F1153" t="n" s="1">
         <v>133.0</v>
@@ -23385,7 +23385,7 @@
         <v>14554.75</v>
       </c>
       <c r="E1154" t="n" s="1">
-        <v>13335.75</v>
+        <v>13335.5</v>
       </c>
       <c r="F1154" t="n" s="1">
         <v>249.25</v>
@@ -23405,7 +23405,7 @@
         <v>14430.25</v>
       </c>
       <c r="E1155" t="n" s="1">
-        <v>13184.0</v>
+        <v>13183.75</v>
       </c>
       <c r="F1155" t="n" s="1">
         <v>68.0</v>
@@ -23425,7 +23425,7 @@
         <v>14218.75</v>
       </c>
       <c r="E1156" t="n" s="1">
-        <v>12993.5</v>
+        <v>12993.25</v>
       </c>
       <c r="F1156" t="n" s="1">
         <v>63.0</v>
@@ -23445,7 +23445,7 @@
         <v>14079.0</v>
       </c>
       <c r="E1157" t="n" s="1">
-        <v>12865.5</v>
+        <v>12865.25</v>
       </c>
       <c r="F1157" t="n" s="1">
         <v>156.0</v>
@@ -23465,7 +23465,7 @@
         <v>14057.0</v>
       </c>
       <c r="E1158" t="n" s="1">
-        <v>12861.25</v>
+        <v>12861.0</v>
       </c>
       <c r="F1158" t="n" s="1">
         <v>435.25</v>
@@ -23505,7 +23505,7 @@
         <v>13590.0</v>
       </c>
       <c r="E1160" t="n" s="1">
-        <v>12330.0</v>
+        <v>12329.75</v>
       </c>
       <c r="F1160" t="n" s="1">
         <v>543.25</v>
@@ -23525,7 +23525,7 @@
         <v>13501.25</v>
       </c>
       <c r="E1161" t="n" s="1">
-        <v>12272.0</v>
+        <v>12271.75</v>
       </c>
       <c r="F1161" t="n" s="1">
         <v>575.5</v>
@@ -23545,7 +23545,7 @@
         <v>13359.75</v>
       </c>
       <c r="E1162" t="n" s="1">
-        <v>12151.75</v>
+        <v>12151.5</v>
       </c>
       <c r="F1162" t="n" s="1">
         <v>684.5</v>
@@ -30162,10 +30162,10 @@
         <v>58</v>
       </c>
       <c r="D1493" t="n" s="1">
-        <v>17888.25</v>
+        <v>17889.5</v>
       </c>
       <c r="E1493" t="n" s="1">
-        <v>14941.5</v>
+        <v>14942.75</v>
       </c>
       <c r="F1493" t="n" s="1">
         <v>2.5</v>
@@ -30182,10 +30182,10 @@
         <v>59</v>
       </c>
       <c r="D1494" t="n" s="1">
-        <v>17925.5</v>
+        <v>17927.25</v>
       </c>
       <c r="E1494" t="n" s="1">
-        <v>14825.75</v>
+        <v>14827.0</v>
       </c>
       <c r="F1494" t="n" s="1">
         <v>22.5</v>
@@ -30202,10 +30202,10 @@
         <v>60</v>
       </c>
       <c r="D1495" t="n" s="1">
-        <v>17836.5</v>
+        <v>17842.25</v>
       </c>
       <c r="E1495" t="n" s="1">
-        <v>14638.5</v>
+        <v>14644.5</v>
       </c>
       <c r="F1495" t="n" s="1">
         <v>16.0</v>
@@ -30222,10 +30222,10 @@
         <v>61</v>
       </c>
       <c r="D1496" t="n" s="1">
-        <v>17844.25</v>
+        <v>17849.0</v>
       </c>
       <c r="E1496" t="n" s="1">
-        <v>14623.0</v>
+        <v>14629.0</v>
       </c>
       <c r="F1496" t="n" s="1">
         <v>52.25</v>
@@ -30242,10 +30242,10 @@
         <v>62</v>
       </c>
       <c r="D1497" t="n" s="1">
-        <v>17707.25</v>
+        <v>17713.25</v>
       </c>
       <c r="E1497" t="n" s="1">
-        <v>14459.5</v>
+        <v>14466.0</v>
       </c>
       <c r="F1497" t="n" s="1">
         <v>54.25</v>
@@ -30261,11 +30261,11 @@
       <c r="C1498" t="s">
         <v>63</v>
       </c>
-      <c r="D1498" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1498" t="s">
-        <v>126</v>
+      <c r="D1498" t="n" s="1">
+        <v>17676.5</v>
+      </c>
+      <c r="E1498" t="n" s="1">
+        <v>14359.75</v>
       </c>
       <c r="F1498" t="n" s="1">
         <v>55.5</v>
@@ -30281,11 +30281,11 @@
       <c r="C1499" t="s">
         <v>64</v>
       </c>
-      <c r="D1499" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1499" t="s">
-        <v>126</v>
+      <c r="D1499" t="n" s="1">
+        <v>17607.5</v>
+      </c>
+      <c r="E1499" t="n" s="1">
+        <v>14312.0</v>
       </c>
       <c r="F1499" t="n" s="1">
         <v>64.0</v>
@@ -30301,14 +30301,14 @@
       <c r="C1500" t="s">
         <v>65</v>
       </c>
-      <c r="D1500" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1500" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1500" t="s">
-        <v>126</v>
+      <c r="D1500" t="n" s="1">
+        <v>17506.0</v>
+      </c>
+      <c r="E1500" t="n" s="1">
+        <v>14190.5</v>
+      </c>
+      <c r="F1500" t="n" s="1">
+        <v>79.75</v>
       </c>
     </row>
     <row r="1501">
@@ -30321,14 +30321,14 @@
       <c r="C1501" t="s">
         <v>66</v>
       </c>
-      <c r="D1501" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1501" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1501" t="s">
-        <v>126</v>
+      <c r="D1501" t="n" s="1">
+        <v>17438.5</v>
+      </c>
+      <c r="E1501" t="n" s="1">
+        <v>14136.25</v>
+      </c>
+      <c r="F1501" t="n" s="1">
+        <v>61.75</v>
       </c>
     </row>
     <row r="1502">
@@ -30341,14 +30341,14 @@
       <c r="C1502" t="s">
         <v>67</v>
       </c>
-      <c r="D1502" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1502" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1502" t="s">
-        <v>126</v>
+      <c r="D1502" t="n" s="1">
+        <v>17438.0</v>
+      </c>
+      <c r="E1502" t="n" s="1">
+        <v>14204.75</v>
+      </c>
+      <c r="F1502" t="n" s="1">
+        <v>49.75</v>
       </c>
     </row>
     <row r="1503">
@@ -30361,14 +30361,14 @@
       <c r="C1503" t="s">
         <v>68</v>
       </c>
-      <c r="D1503" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1503" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1503" t="s">
-        <v>126</v>
+      <c r="D1503" t="n" s="1">
+        <v>17490.75</v>
+      </c>
+      <c r="E1503" t="n" s="1">
+        <v>14296.75</v>
+      </c>
+      <c r="F1503" t="n" s="1">
+        <v>33.0</v>
       </c>
     </row>
     <row r="1504">
@@ -30381,14 +30381,14 @@
       <c r="C1504" t="s">
         <v>69</v>
       </c>
-      <c r="D1504" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1504" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1504" t="s">
-        <v>126</v>
+      <c r="D1504" t="n" s="1">
+        <v>17464.25</v>
+      </c>
+      <c r="E1504" t="n" s="1">
+        <v>14361.75</v>
+      </c>
+      <c r="F1504" t="n" s="1">
+        <v>55.75</v>
       </c>
     </row>
     <row r="1505">
@@ -30401,14 +30401,14 @@
       <c r="C1505" t="s">
         <v>70</v>
       </c>
-      <c r="D1505" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1505" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1505" t="s">
-        <v>126</v>
+      <c r="D1505" t="n" s="1">
+        <v>17388.25</v>
+      </c>
+      <c r="E1505" t="n" s="1">
+        <v>14366.0</v>
+      </c>
+      <c r="F1505" t="n" s="1">
+        <v>61.75</v>
       </c>
     </row>
     <row r="1506">
@@ -30421,14 +30421,14 @@
       <c r="C1506" t="s">
         <v>71</v>
       </c>
-      <c r="D1506" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1506" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1506" t="s">
-        <v>126</v>
+      <c r="D1506" t="n" s="1">
+        <v>17282.75</v>
+      </c>
+      <c r="E1506" t="n" s="1">
+        <v>14344.75</v>
+      </c>
+      <c r="F1506" t="n" s="1">
+        <v>63.5</v>
       </c>
     </row>
     <row r="1507">
@@ -30441,14 +30441,14 @@
       <c r="C1507" t="s">
         <v>72</v>
       </c>
-      <c r="D1507" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1507" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1507" t="s">
-        <v>126</v>
+      <c r="D1507" t="n" s="1">
+        <v>17327.75</v>
+      </c>
+      <c r="E1507" t="n" s="1">
+        <v>14574.25</v>
+      </c>
+      <c r="F1507" t="n" s="1">
+        <v>60.75</v>
       </c>
     </row>
     <row r="1508">
@@ -30461,14 +30461,14 @@
       <c r="C1508" t="s">
         <v>73</v>
       </c>
-      <c r="D1508" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1508" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1508" t="s">
-        <v>126</v>
+      <c r="D1508" t="n" s="1">
+        <v>17160.25</v>
+      </c>
+      <c r="E1508" t="n" s="1">
+        <v>14622.5</v>
+      </c>
+      <c r="F1508" t="n" s="1">
+        <v>16.5</v>
       </c>
     </row>
     <row r="1509">
@@ -30487,8 +30487,8 @@
       <c r="E1509" t="s">
         <v>126</v>
       </c>
-      <c r="F1509" t="s">
-        <v>126</v>
+      <c r="F1509" t="n" s="1">
+        <v>14.5</v>
       </c>
     </row>
     <row r="1510">
@@ -30507,8 +30507,8 @@
       <c r="E1510" t="s">
         <v>126</v>
       </c>
-      <c r="F1510" t="s">
-        <v>126</v>
+      <c r="F1510" t="n" s="1">
+        <v>13.5</v>
       </c>
     </row>
     <row r="1511">
@@ -30527,8 +30527,8 @@
       <c r="E1511" t="s">
         <v>126</v>
       </c>
-      <c r="F1511" t="s">
-        <v>126</v>
+      <c r="F1511" t="n" s="1">
+        <v>2.75</v>
       </c>
     </row>
     <row r="1512">
